--- a/data/trans_dic/P2A_ner_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,46</t>
+          <t>1,68; 6,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 11,18</t>
+          <t>4,72; 11,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,06</t>
+          <t>2,03; 6,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 10,2</t>
+          <t>3,66; 9,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,06; 20,99</t>
+          <t>12,42; 21,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,19</t>
+          <t>1,43; 4,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,02</t>
+          <t>3,35; 7,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 14,68</t>
+          <t>9,27; 14,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,85</t>
+          <t>2,17; 4,82</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,6</t>
+          <t>2,37; 5,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,99</t>
+          <t>1,57; 5,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,22</t>
+          <t>1,87; 5,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,52</t>
+          <t>2,79; 7,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,0</t>
+          <t>3,85; 7,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 8,45</t>
+          <t>4,01; 8,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,74</t>
+          <t>7,73; 13,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,35</t>
+          <t>5,28; 9,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 6,06</t>
+          <t>3,52; 6,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,85</t>
+          <t>3,31; 6,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,78</t>
+          <t>5,36; 8,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,58</t>
+          <t>4,63; 7,61</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,71</t>
+          <t>1,13; 4,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,88</t>
+          <t>0,88; 3,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,47</t>
+          <t>1,86; 6,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,34</t>
+          <t>0,27; 2,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,89</t>
+          <t>0,62; 3,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 12,94</t>
+          <t>6,23; 12,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,83</t>
+          <t>4,46; 8,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,47</t>
+          <t>0,15; 1,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,4</t>
+          <t>1,18; 3,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,76</t>
+          <t>3,95; 7,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,96</t>
+          <t>3,77; 7,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,87</t>
+          <t>0,77; 4,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,58</t>
+          <t>1,86; 4,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,32</t>
+          <t>2,77; 7,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,84</t>
+          <t>3,61; 9,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,28</t>
+          <t>2,5; 6,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,95</t>
+          <t>5,82; 9,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 11,69</t>
+          <t>5,94; 11,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,96</t>
+          <t>3,5; 7,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,28</t>
+          <t>1,89; 4,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,53</t>
+          <t>4,26; 6,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,82</t>
+          <t>5,04; 8,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,97</t>
+          <t>3,95; 7,96</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,29</t>
+          <t>2,12; 7,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 14,4</t>
+          <t>6,24; 14,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 11,57</t>
+          <t>4,41; 11,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,19</t>
+          <t>0,37; 3,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 11,48</t>
+          <t>4,19; 11,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,81; 19,1</t>
+          <t>9,82; 19,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,83; 18,43</t>
+          <t>9,61; 18,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,33</t>
+          <t>1,45; 4,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 8,06</t>
+          <t>3,67; 8,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 15,16</t>
+          <t>9,04; 15,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,93; 13,75</t>
+          <t>7,94; 13,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,14</t>
+          <t>1,24; 3,11</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,78</t>
+          <t>0,38; 3,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,48</t>
+          <t>2,34; 7,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,6</t>
+          <t>2,42; 6,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,42</t>
+          <t>1,72; 6,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,35</t>
+          <t>1,79; 6,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,67; 16,38</t>
+          <t>8,5; 16,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,39</t>
+          <t>2,69; 6,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,25</t>
+          <t>1,42; 3,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,36</t>
+          <t>1,09; 3,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 11,01</t>
+          <t>6,0; 10,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,7</t>
+          <t>3,02; 5,61</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,97</t>
+          <t>0,88; 2,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,21</t>
+          <t>1,65; 4,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,11</t>
+          <t>2,91; 6,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,74</t>
+          <t>3,9; 7,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,98</t>
+          <t>2,25; 5,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,61</t>
+          <t>1,27; 3,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,72; 13,58</t>
+          <t>8,74; 13,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,51; 52,23</t>
+          <t>6,38; 49,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,63</t>
+          <t>1,84; 3,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,53</t>
+          <t>1,73; 3,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,17</t>
+          <t>6,4; 9,56</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 36,94</t>
+          <t>5,93; 34,86</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,82</t>
+          <t>2,83; 5,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,78</t>
+          <t>1,87; 4,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,38</t>
+          <t>3,4; 6,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,48; 13,57</t>
+          <t>8,3; 13,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,53</t>
+          <t>4,12; 7,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,18</t>
+          <t>2,46; 5,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,28; 12,97</t>
+          <t>8,58; 12,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,26</t>
+          <t>10,26; 14,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,2</t>
+          <t>3,79; 6,17</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,36</t>
+          <t>2,5; 4,45</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,41; 9,27</t>
+          <t>6,5; 9,29</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,89; 13,16</t>
+          <t>10,0; 13,33</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,39</t>
+          <t>2,22; 3,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,73</t>
+          <t>2,48; 3,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,8; 5,24</t>
+          <t>3,85; 5,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,2</t>
+          <t>5,3; 7,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,87; 5,37</t>
+          <t>3,8; 5,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,22; 5,68</t>
+          <t>4,31; 5,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,2</t>
+          <t>9,96; 12,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,97; 19,12</t>
+          <t>6,87; 19,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,22; 4,14</t>
+          <t>3,2; 4,13</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,54</t>
+          <t>3,53; 4,53</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,16; 8,53</t>
+          <t>7,22; 8,59</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,46; 14,12</t>
+          <t>6,48; 13,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_ner_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 5,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,56</t>
+          <t>1,9; 6,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,59; 9,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,27</t>
+          <t>1,34; 3,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 6,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,82</t>
+          <t>1,96; 4,72</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,75</t>
+          <t>1,26; 4,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,24</t>
+          <t>4,36; 7,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,61</t>
+          <t>3,25; 5,46</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 6,84</t>
+          <t>1,85; 7,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,84</t>
+          <t>3,42; 7,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,03</t>
+          <t>3,17; 6,19</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,37</t>
+          <t>1,31; 4,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,85</t>
+          <t>3,28; 9,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,99</t>
+          <t>6,31; 11,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,85</t>
+          <t>1,78; 5,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,62</t>
+          <t>3,98; 7,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,96</t>
+          <t>2,79; 6,34</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,12</t>
+          <t>0,37; 3,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,47</t>
+          <t>1,12; 3,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,11</t>
+          <t>1,07; 2,91</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,91%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,56</t>
+          <t>2,35; 6,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,19</t>
+          <t>2,48; 5,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,61</t>
+          <t>2,86; 5,43</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,98</t>
+          <t>3,3; 7,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,38; 49,04</t>
+          <t>5,71; 64,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,93; 34,86</t>
+          <t>5,25; 48,39</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,92</t>
+          <t>2,95; 6,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1719,12 +1719,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,3; 13,28</t>
+          <t>0,62; 2,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,56</t>
+          <t>4,31; 7,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,26; 14,57</t>
+          <t>3,11; 5,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,17</t>
+          <t>3,88; 6,3</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,0; 13,33</t>
+          <t>1,74; 3,71</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,28</t>
+          <t>2,26; 3,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,3; 7,13</t>
+          <t>2,55; 4,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,8; 5,33</t>
+          <t>3,85; 5,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,87; 19,21</t>
+          <t>4,36; 25,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,13</t>
+          <t>3,24; 4,18</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,48; 13,16</t>
+          <t>3,76; 15,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_ner_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,52</t>
+          <t>1,92; 6,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,93</t>
+          <t>1,9; 6,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 11,09</t>
+          <t>4,96; 11,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,28</t>
+          <t>1,97; 6,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,82</t>
+          <t>3,75; 10,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,66</t>
+          <t>3,89; 9,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,42; 21,12</t>
+          <t>11,89; 20,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,91</t>
+          <t>1,31; 3,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,36</t>
+          <t>3,31; 7,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,82</t>
+          <t>3,4; 7,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,27; 14,93</t>
+          <t>9,18; 14,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,72</t>
+          <t>1,95; 4,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,7</t>
+          <t>2,25; 6,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,43</t>
+          <t>1,58; 5,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,11</t>
+          <t>1,89; 5,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,16</t>
+          <t>1,32; 4,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,96</t>
+          <t>3,8; 8,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,45</t>
+          <t>4,03; 8,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,73; 13,28</t>
+          <t>7,61; 13,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,84</t>
+          <t>4,45; 7,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,23</t>
+          <t>3,49; 6,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,13</t>
+          <t>3,19; 6,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,62</t>
+          <t>5,34; 8,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,46</t>
+          <t>3,3; 5,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,42 +1005,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,52</t>
+          <t>1,13; 4,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,91</t>
+          <t>0,89; 4,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,35</t>
+          <t>1,81; 6,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,55</t>
+          <t>0,27; 2,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,99</t>
+          <t>0,85; 3,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 12,5</t>
+          <t>6,4; 12,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,3</t>
+          <t>3,5; 7,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1050,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,27</t>
+          <t>1,2; 3,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,61</t>
+          <t>4,09; 7,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,19</t>
+          <t>3,18; 6,15</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,22</t>
+          <t>0,76; 3,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,57</t>
+          <t>1,32; 4,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,47</t>
+          <t>2,75; 7,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,28</t>
+          <t>3,36; 9,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,49</t>
+          <t>2,45; 6,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,72</t>
+          <t>6,36; 11,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 11,81</t>
+          <t>5,89; 11,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,66</t>
+          <t>1,84; 5,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,44</t>
+          <t>1,99; 4,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,36</t>
+          <t>4,12; 7,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,56</t>
+          <t>4,97; 8,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,34</t>
+          <t>3,01; 6,6</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,12</t>
+          <t>2,12; 6,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 14,45</t>
+          <t>6,15; 14,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,09</t>
+          <t>4,18; 11,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,1</t>
+          <t>0,38; 3,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 11,89</t>
+          <t>4,16; 11,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 19,17</t>
+          <t>9,75; 19,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,61; 18,7</t>
+          <t>9,44; 18,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,92</t>
+          <t>1,13; 3,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 8,26</t>
+          <t>3,68; 8,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 15,55</t>
+          <t>8,96; 15,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,94; 13,87</t>
+          <t>8,04; 13,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,91</t>
+          <t>1,03; 2,94</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,29</t>
+          <t>0,38; 3,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,6</t>
+          <t>2,47; 7,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,4</t>
+          <t>2,28; 6,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,14</t>
+          <t>1,74; 6,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,28</t>
+          <t>1,77; 6,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,5; 16,59</t>
+          <t>8,58; 16,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,89</t>
+          <t>2,39; 5,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,98</t>
+          <t>1,46; 4,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,47</t>
+          <t>1,06; 3,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,95</t>
+          <t>6,21; 11,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,43</t>
+          <t>2,66; 5,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,98</t>
+          <t>1,0; 3,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,15</t>
+          <t>1,75; 4,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,15</t>
+          <t>2,75; 6,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,44</t>
+          <t>3,29; 7,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,21</t>
+          <t>2,26; 5,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,67</t>
+          <t>1,24; 3,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 13,67</t>
+          <t>8,65; 13,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 64,85</t>
+          <t>5,71; 60,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,63</t>
+          <t>1,8; 3,58</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,45</t>
+          <t>1,75; 3,52</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,4; 9,56</t>
+          <t>6,25; 9,3</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,25; 48,39</t>
+          <t>5,19; 51,05</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,05</t>
+          <t>3,07; 6,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,69</t>
+          <t>1,91; 4,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,26</t>
+          <t>3,42; 6,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,99</t>
+          <t>0,69; 2,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,79</t>
+          <t>4,2; 7,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,15</t>
+          <t>2,46; 5,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,92</t>
+          <t>8,46; 12,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,53</t>
+          <t>3,06; 5,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,3</t>
+          <t>3,88; 6,25</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,45</t>
+          <t>2,42; 4,44</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,5; 9,29</t>
+          <t>6,38; 9,21</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,71</t>
+          <t>1,76; 3,75</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,35</t>
+          <t>2,22; 3,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,72</t>
+          <t>2,48; 3,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,29</t>
+          <t>3,83; 5,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,0</t>
+          <t>2,57; 4,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,38</t>
+          <t>3,83; 5,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,31; 5,77</t>
+          <t>4,28; 5,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,11</t>
+          <t>10,01; 12,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,36; 25,93</t>
+          <t>4,34; 26,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,18</t>
+          <t>3,25; 4,19</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,53; 4,53</t>
+          <t>3,54; 4,51</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,22; 8,59</t>
+          <t>7,13; 8,52</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,76; 15,91</t>
+          <t>3,74; 16,58</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con problemas de nervios, depresión o trastorno mental</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9792</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10192</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22004</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11361</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16797</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18201</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>46635</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26589</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28393</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>68639</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18265</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5242; 16695</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5600; 18343</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14582; 32459</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6149; 20743</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9769; 26504</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11177; 27864</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34333; 60094</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3800; 11224</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17650; 38331</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19789; 41341</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>53462; 86795</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11748; 28159</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18512</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14898</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16683</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12802</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28562</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31297</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>52942</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30841</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>47074</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>46195</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>69625</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43643</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11111; 29593</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7971; 27137</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9474; 26428</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6821; 21161</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19162; 40849</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21098; 43656</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>39821; 68473</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22914; 41078</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34801; 61671</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32828; 63022</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>54783; 88676</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34080; 58108</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7658</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6083</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11228</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2893</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6195</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30899</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18051</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3862</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13853</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>36981</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29279</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4899</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3657; 14503</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2825; 12970</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5731; 21486</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>908; 7731</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2884; 13280</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21529; 43260</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12222; 25353</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>970; 8744</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8010; 23846</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26795; 51638</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21141; 40881</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6918</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17312</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17876</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14927</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>33680</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32952</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16846</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21845</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42793</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>50264</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>34722</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2723; 13628</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4921; 17289</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10157; 27071</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10508; 29946</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9098; 23758</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24718; 45094</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>22823; 45411</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8745; 27017</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14542; 32076</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31405; 56749</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>37668; 65748</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>23722; 52043</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8126</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>20342</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15543</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14838</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30554</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30053</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6138</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22964</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>50895</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>45596</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8182</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4306; 14080</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13085; 31053</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8833; 24330</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>671; 6456</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8636; 23960</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>21402; 42358</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20638; 41384</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2922; 9998</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15120; 33380</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>38745; 66315</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>34576; 58463</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4507; 12857</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11583</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10603</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10120</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10082</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>32973</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10016</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>14032</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>11025</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>44557</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>20618</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1035; 9335</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4786</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6511; 19511</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6142; 17298</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4832; 17948</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4956; 17024</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>23421; 45139</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6142; 15274</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>8028; 23566</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5869; 18462</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>33280; 59023</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13993; 28544</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10890</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>18323</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>27521</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>30853</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>21799</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>15801</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>76585</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>244995</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>32689</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>34124</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>104106</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>275848</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6176; 18920</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>11593; 28662</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>18058; 41708</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>20529; 47199</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>14397; 32540</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>8609; 25389</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>59779; 93058</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>48462; 509972</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22606; 44916</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>23736; 47727</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>84291; 125289</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>76424; 752279</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>31800</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>23749</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>36444</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>16356</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>45019</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>29753</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>87759</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>29926</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>76819</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>53502</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>124203</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>46282</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>22812; 46861</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>14853; 35874</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>26602; 50495</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>6435; 26724</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>32907; 60562</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>20295; 41585</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>69911; 107187</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>21952; 39271</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>59192; 95384</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>38867; 71246</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>102399; 147841</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>28961; 61814</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>90919</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>105218</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>153173</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>113122</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>154955</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>175563</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>390800</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>363717</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>245873</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>280781</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>543973</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>476840</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>72645; 111320</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>84953; 125556</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>130162; 179186</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>88845; 141740</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>129417; 181201</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>152205; 207429</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>354888; 430916</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>161276; 988032</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>216538; 278899</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>247516; 314833</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>495007; 591483</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>268313; 1189282</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>